--- a/app/data.xlsx
+++ b/app/data.xlsx
@@ -14,162 +14,732 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52" count="52">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242" count="242">
   <x:si>
     <x:t>board_idx</x:t>
   </x:si>
   <x:si>
-    <x:t>userid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reg_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_role</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>youthAge_code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>parentsAge_code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sex_class_code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emd_class_code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>salt</x:t>
+    <x:t>uid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>policy_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>policy_target_code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>policy_institution_code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>policy_field_code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>policy_character_code</x:t>
   </x:si>
   <x:si>
     <x:t>del_chk</x:t>
   </x:si>
   <x:si>
+    <x:t>policy_link</x:t>
+  </x:si>
+  <x:si>
+    <x:t>application_start_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>application_end_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>count_scraps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>count_views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>min_fund</x:t>
+  </x:si>
+  <x:si>
+    <x:t>max_fund</x:t>
+  </x:si>
+  <x:si>
+    <x:t>content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>img</x:t>
+  </x:si>
+  <x:si>
     <x:t>ins_date</x:t>
   </x:si>
   <x:si>
     <x:t>upd_date</x:t>
   </x:si>
   <x:si>
-    <x:t>admin3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>W24xBoKLQLA8di1Je0GcRZofp5fwNV1JJyX+jQarPAthDRwbDve2eF/XMso0GUFoGWZ4O4Elvf4JdgikbNAjOOSm/8gsLL87FDtEQtcyHLiL+4DytjwMbR0khI2m6u5Zb2r4PalpdbZotclGFWecLVK0uLEGU6AE7HdN+9aFOhw=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASDF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A784qnHmTkOSz3o9MWQ+xtqVpTMDK45/1AKBDK6tI/CnXXSozMb65qo+7b9Qlr9F6DKImVhCbHyD4zZ6e0D+0w==</x:t>
+    <x:t>d3d033b2-7dd0-4162-8305-8f23d2fc1142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01</x:t>
   </x:si>
   <x:si>
     <x:t>N</x:t>
   </x:si>
   <x:si>
-    <x:t>Fri Feb 10 2023 16:04:10 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Feb 22 2023 18:05:35 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adsf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FkU3jU/ugJWuliMXhaSO4uk6SCkkcmaBJ4VL6leXEJPvRuz3oQqVwQ6uBorYQ+/qgYUg0L/jXFUY3BizGRFPa/nbLZTjGid1UB0DTTNuoQ2s/a3rQ+7lzO6IP3l6g3/RW/Fi8XA3ww/LkuUNRySBY0Czp13Mbs9gTEYhEGZc34c=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>undefined</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fqf+cY4/9zZkm7bUtqmtJXxEXh1DXZjhqT6QrY0FiiGCoEaiM48FibHJJOo7WdaUUTw0YDm+RFF6gBRN7RZh4Q==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Feb 15 2023 16:12:59 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Feb 22 2023 17:32:11 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fadsfas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MoKrEgpmBb6i3epmLLBYcFGthg6RW/Dxm/va6TM3qWweiYlxf4I8CWTdEwZ5u3nKfBX7EscI6YIrGcv55HEcFED28nl60rj9Uski/5k08TQTe2irC8phxgMPldS0h6rBR3yyRfNXbgqYHfQSRDz4LwVsrtNK8BXGC0OC/SSudY8=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdfs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nhpFvbITp+ZMwaFp6peoKD7KeRlsMhW/lafh0tYcF1/n13sMsHjetKFPe4AHFMJYTTaLz4nmtOjkUWvdCOI+jA==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Feb 15 2023 16:13:17 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Feb 24 2023 15:56:18 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdfasdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MgghJVh8qhZsLG0Q9OM84F2TZ32DV4wnMPYE8tFyCpTdVoeWWv/7KFpIHyS1FWe4FGXZQt5MTtvCwSZFZFTf9RMClIgbfpIvdL9peIUCah7XEo01/ij3jpZc5y1X5v/zIqcPRsk+M1pZbwyEY6vAbtoRDyikmuk5D7fEwaD2y8Q=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glx4r6Jf2z2uRKATTVTDSepZR7rSLE1bjLTRLWs9u6OiMRcOFk3HMPwC3HupxLgs9irBiMO91nHmwjXNwhn+Hw==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Feb 15 2023 16:13:23 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Feb 24 2023 15:56:32 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NlKOsGgE3hD0KK/yH/5UDiNndYvNeKUSQZ96zRC4eVr9vcSnxNJ6bu+qYT/rnkVO0Zf7opE/nxP23fnIk9YmkBf7oQp6iFP2vm4QHylG32omF65wSM3qT59nNlBbicYfOK3acQm88ByYvmmYqcWp/hUxhOjm1kJg/RB6DKcKUOM=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>t7nP/Po+BeDmpH2zS8d7f3UTi10i+TVUycLef+4cnYgQDFdcKYn5GhlioTmHMHk0ug7M2TNftymrKmsIAfmBsw==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Feb 22 2023 17:30:53 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Feb 22 2023 17:30:53 GMT+0900 (대한민국 표준시)</x:t>
+    <x:t>link1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>content1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>img1.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:00:29 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:00:29 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2075f59c-3c5f-431a-8435-b49623155727</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:00:29 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:00:29 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cffbb140-fa53-46d3-b58a-14bf9bfdf227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:00:31 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:00:31 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97ee1227-72a7-4efe-983f-2e9db71583c5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:00:31 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:00:31 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d83e7dbf-96b6-4d9f-8458-9a3077446576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:00:33 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:00:33 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>510d78a3-37ea-43a4-b1ed-23aa8128398b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:02 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:02 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b86dadfb-ca07-4d19-ba2c-cee97062d57a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:04 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:04 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b1227a06-eed3-48c5-a534-27053c1d55f8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:04 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:04 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3ee48ab9-d87c-49db-a306-425c0309fbec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:04 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:04 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d1838313-f7f3-45a5-a759-5d59c77067fc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:05 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:05 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60a2be83-31fa-45cd-ac95-cd0372bedea1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:05 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:05 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d0ad3c21-71f3-4921-b348-0f1459cde75b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:06 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:06 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3bbc787f-dd2c-449c-b5cf-186a1fa6327c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:06 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:06 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38d5e3e0-e2da-4bbe-a3c0-e00ad4df6df3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:06 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:06 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5d83eb93-ace2-4226-9e64-de62cf2087b8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:07 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:07 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36f2e045-a49e-4df5-af20-8949068389dc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:07 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:07 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05e32a29-51c7-4771-a2d8-ba749f8c6cec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:08 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:08 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66175a5d-fdb1-4996-9299-b02a6fd39c4a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:08 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:08 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b6ff3b47-5698-4fd8-bed6-9fd703f26a97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:09 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:09 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6d682402-5df0-4fb3-95e1-cbfb48fadb84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:09 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:09 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aa2bcff0-f19f-43e0-a44d-933076b177e7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:10 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:10 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14048042-9b44-4ed4-b120-ef2418d12200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:10 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:10 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>746c4da7-1764-4803-a20e-ae4c0775d7ec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:10 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:10 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f9b1ee35-c895-4e4d-b73b-92a862e7c4ea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:11 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:11 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e9ceefed-5b22-49d4-9ea7-58a967bee7c7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:11 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:11 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>def43185-1b7f-477f-9eac-8d28213302f8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:11 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:11 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e5f8bf9e-90a2-4a0e-b52b-d3a16ee27520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:12 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:12 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7fe58f4f-102d-4a15-bd79-634224130e7f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:12 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:12 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6b695d62-8c20-450a-b984-be1bca9ea361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:13 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:13 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3fff236e-c94d-4f32-96d7-8ed02ba1de38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:13 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:13 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>990dab99-a09e-44e8-8014-e89fea53c31e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:14 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:14 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d6e197b9-0e8c-47ac-8988-accc248a1b4e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:14 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:14 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>df03359c-7c57-44cb-82f9-27aa3de24d9b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:15 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:15 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>768e6e57-6e35-41ca-b552-bf842d2c22f2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:15 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:15 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>939ca77a-a263-491b-95ac-40f6cfa80ce3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:15 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:15 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d807626c-2ace-4185-b9fe-2247e940d611</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:16 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:16 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b337d807-d170-4557-86c5-78540df182c2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:16 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:16 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48891326-3d6b-4426-b17d-bac51e6c2dca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:17 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:17 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>743280e2-4bc2-4266-83e6-0b59b31aa503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:17 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jul 04 2023 17:05:17 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>decb61c6-7a60-4622-8607-011a47482903</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 05 2023 13:52:47 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 05 2023 13:52:47 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14462d30-0db4-4552-a58d-c94ab462dae4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 05 2023 13:52:48 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 05 2023 13:52:48 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1e7faf92-d70f-431b-8994-da56047b8ac1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 05 2023 13:52:48 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 05 2023 13:52:48 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>879c3943-e7cd-4bf6-8b2f-f6be8d2bee0a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jan 01 2020 00:00:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 05 2023 13:52:49 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 05 2023 13:52:49 GMT+0900 (대한민국 표준시)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -532,7 +1102,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:16">
+    <x:row r="1" spans="1:20">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -581,240 +1151,2554 @@
       <x:c r="P1" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:16">
+      <x:c r="Q1" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="R1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="S1" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="T1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:20">
       <x:c r="A2" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="O2" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="P2" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:16">
+      <x:c r="M2" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S2" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="T2" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:20">
       <x:c r="A3" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="M3" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="N3" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="O3" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="P3" s="0" t="s">
+      <x:c r="M3" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q3" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R3" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S3" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:16">
+      <x:c r="T3" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:20">
       <x:c r="A4" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="N4" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="O4" s="0" t="s">
+      <x:c r="M4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S4" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="P4" s="0" t="s">
+      <x:c r="T4" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:16">
+    <x:row r="5" spans="1:20">
       <x:c r="A5" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="D5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="L5" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="M5" s="0" t="s">
+      <x:c r="M5" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O5" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P5" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S5" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="N5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="O5" s="0" t="s">
+      <x:c r="T5" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P5" s="0" t="s">
+    </x:row>
+    <x:row r="6" spans="1:20">
+      <x:c r="A6" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:16">
-      <x:c r="A6" s="0" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>44</x:v>
+      <x:c r="C6" s="0" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="L6" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="M6" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="N6" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="O6" s="0" t="s">
+      <x:c r="M6" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O6" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P6" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S6" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="P6" s="0" t="s">
+      <x:c r="T6" s="0" t="s">
         <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="0" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N7" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O7" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P7" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S7" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="T7" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:20">
+      <x:c r="A8" s="0" t="n">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N8" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O8" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P8" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R8" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S8" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="T8" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="0" t="n">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O9" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P9" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S9" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="T9" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="0" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N10" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O10" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P10" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S10" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="T10" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="0" t="n">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N11" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O11" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P11" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q11" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R11" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S11" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="T11" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="0" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N12" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O12" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P12" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q12" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R12" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S12" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="T12" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="0" t="n">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N13" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O13" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P13" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q13" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R13" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S13" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="T13" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="0" t="n">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N14" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O14" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P14" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R14" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S14" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="T14" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="0" t="n">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O15" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P15" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R15" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S15" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="T15" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="0" t="n">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P16" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q16" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R16" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S16" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="T16" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="0" t="n">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N17" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O17" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P17" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q17" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R17" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S17" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="T17" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="0" t="n">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K18" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="L18" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="M18" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N18" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O18" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P18" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q18" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R18" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S18" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="T18" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="0" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K19" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="L19" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="M19" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N19" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O19" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P19" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q19" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R19" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S19" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="T19" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="0" t="n">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="L20" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N20" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O20" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P20" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q20" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R20" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S20" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="T20" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="0" t="n">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K21" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="L21" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="M21" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N21" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O21" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P21" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q21" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R21" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S21" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="T21" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="0" t="n">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K22" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="L22" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="M22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O22" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P22" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q22" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R22" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S22" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="T22" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="0" t="n">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K23" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="L23" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="M23" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N23" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O23" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P23" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q23" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R23" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S23" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="T23" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="0" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K24" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="L24" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="M24" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N24" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O24" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P24" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q24" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R24" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S24" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="T24" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="0" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K25" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O25" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P25" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q25" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R25" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S25" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="T25" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="0" t="n">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K26" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N26" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O26" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P26" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q26" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R26" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S26" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="T26" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="0" t="n">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J27" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K27" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="L27" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="M27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O27" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P27" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q27" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R27" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S27" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="T27" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="0" t="n">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J28" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K28" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="L28" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="M28" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N28" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O28" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P28" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q28" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R28" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S28" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="T28" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="0" t="n">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J29" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K29" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="L29" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="M29" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N29" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O29" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P29" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q29" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R29" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S29" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="T29" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="0" t="n">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J30" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K30" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="L30" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M30" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N30" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O30" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P30" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q30" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R30" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S30" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="T30" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="0" t="n">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J31" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K31" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="L31" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="M31" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N31" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O31" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P31" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q31" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R31" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S31" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="T31" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="0" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J32" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K32" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="L32" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="M32" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N32" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O32" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P32" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q32" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R32" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S32" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="T32" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="0" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J33" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K33" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="L33" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="M33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O33" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P33" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q33" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R33" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S33" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="T33" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="0" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J34" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K34" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="L34" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="M34" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N34" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O34" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P34" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q34" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R34" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S34" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="T34" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="0" t="n">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J35" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K35" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="L35" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="M35" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N35" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O35" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P35" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q35" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R35" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S35" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="T35" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="0" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J36" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K36" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="L36" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="M36" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N36" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O36" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P36" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q36" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R36" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S36" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="T36" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="0" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J37" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K37" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="L37" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="M37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O37" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P37" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q37" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R37" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S37" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="T37" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="0" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J38" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K38" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="L38" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="M38" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N38" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O38" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P38" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q38" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R38" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S38" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="T38" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="0" t="n">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J39" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K39" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="L39" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="M39" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N39" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O39" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P39" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q39" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R39" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S39" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="T39" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="0" t="n">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J40" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K40" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="L40" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="M40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O40" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P40" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q40" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R40" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S40" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="T40" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="0" t="n">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J41" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K41" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="L41" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="M41" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N41" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O41" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P41" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q41" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R41" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S41" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="T41" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="0" t="n">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J42" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K42" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="L42" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="M42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O42" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P42" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q42" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R42" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S42" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="T42" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="0" t="n">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J43" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K43" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="L43" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="M43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O43" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P43" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q43" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R43" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S43" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="T43" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="0" t="n">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J44" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K44" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="L44" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="M44" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N44" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O44" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="P44" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="Q44" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R44" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S44" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="T44" s="0" t="s">
+        <x:v>241</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
